--- a/data/print_templates/D__destination_label__all_labels.xlsx
+++ b/data/print_templates/D__destination_label__all_labels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/Desktop/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/asf-wms/data/print_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F337711-7D74-FD46-8014-409C11DA6ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D53D99-D73D-0D4D-8AD0-729C6E2770F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D41FDF60-E254-7C4C-BFC3-DDF9FE3B5742}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$F$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$G$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>N° EXPEDITION</t>
   </si>
@@ -49,18 +49,12 @@
   <si>
     <t>N° COLIS</t>
   </si>
-  <si>
-    <t>(ville)</t>
-  </si>
-  <si>
-    <t>(iata)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +81,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,45 +291,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,70 +667,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF51C3FB-7A83-BF41-B717-28B03D752EA9}">
-  <dimension ref="A1:L8"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2"/>
+    <row r="3" spans="2:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+    <row r="7" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L8">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M8">
         <f>18*4</f>
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="11" scale="67" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>